--- a/biology/Zoologie/Euryglottis_dognini/Euryglottis_dognini.xlsx
+++ b/biology/Zoologie/Euryglottis_dognini/Euryglottis_dognini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euryglottis dognini est une espèce de lépidoptères de la famille des Sphingidae, de la sous-famille des Sphinginae, de la tribu des Sphingini et du genre Euryglottis.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L' envergure est d'environ 117 mm. Il y a trois rangées de taches blanches sur chaque côté de l'abdomen et une grande tache blanche à la base sur la partie inférieure de l'abdomen.
 			Euryglottis dognini femelle, face dorsale (coll.MHNT)
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre est néo-tropical[1]. L'espèce est connue en Colombie, en Équateur, et au Pérou en Bolivie et au Venezuela.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre est néo-tropical. L'espèce est connue en Colombie, en Équateur, et au Pérou en Bolivie et au Venezuela.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent de février à août.
 </t>
@@ -606,9 +624,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Euryglottis dognini a été décrite par l'entomologistes britannique Lionel Walter Rothschild en 1896[2].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Euryglottis dognini a été décrite par l'entomologistes britannique Lionel Walter Rothschild en 1896.</t>
         </is>
       </c>
     </row>
